--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_medic2_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_medic2_1_1.xlsx
@@ -1016,7 +1016,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="そうだな……Lancet-2はきっと「コーヒーを飲むのは控えてください」と言いたかったんだと思う。", values="1")]
+    <t xml:space="preserve">[Decision(options="ああ。さっきのは「コーヒーを飲むのは控えてください」だ。", values="1")]
 </t>
   </si>
   <si>
@@ -2452,7 +2452,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="엔지니어링 오퍼레이터"]  제 수준은 클로저 씨보다 훨씬 못할 텐데요…….
+    <t xml:space="preserve">[name="엔지니어링 오퍼레이터"]  제 수준은 클로저 씨보다 훨씬 못할 텐데요……
 </t>
   </si>
   <si>
